--- a/SpaOnline/ModeloDominioEnriquecido/ModelodeDominioEnriquecido -Sucursales.xlsx
+++ b/SpaOnline/ModeloDominioEnriquecido/ModelodeDominioEnriquecido -Sucursales.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luis ospina\OneDrive\Documentos\GitHub\DOO\SpaOnline\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://grchia-my.sharepoint.com/personal/jhonatan_gomez_wiga_io/Documents/Escritorio/UCO/DOO GIT/SpaOnline/ModeloDominioEnriquecido/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E499792-C7DB-4369-BFC0-02F839E5B54F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{36012E7C-B3F4-482B-AC16-7CCB81B9AE88}"/>
+    <workbookView minimized="1" xWindow="1935" yWindow="510" windowWidth="15375" windowHeight="7785" activeTab="1" xr2:uid="{36012E7C-B3F4-482B-AC16-7CCB81B9AE88}"/>
   </bookViews>
   <sheets>
     <sheet name="Modelo de dominio anémico" sheetId="61" r:id="rId1"/>
@@ -225,7 +225,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -272,12 +272,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="11">
@@ -660,84 +654,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -754,6 +670,84 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -836,9 +830,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -876,7 +870,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -982,7 +976,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1124,7 +1118,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1165,9 +1159,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02388B9D-0652-49D5-BF62-A59B793D6DFC}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1179,86 +1173,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="76" t="s">
+      <c r="B1" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="76" t="s">
+      <c r="C1" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="76" t="s">
+      <c r="D1" s="50" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="78" t="s">
+      <c r="B2" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="79" t="s">
+      <c r="C2" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="80" t="s">
+      <c r="D2" s="54" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="81" t="s">
+      <c r="A3" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="76" t="s">
+      <c r="B3" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="79" t="s">
+      <c r="C3" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="80" t="s">
+      <c r="D3" s="54" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="77" t="s">
+      <c r="A4" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="78" t="s">
+      <c r="B4" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="79" t="s">
+      <c r="C4" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="80" t="s">
+      <c r="D4" s="54" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="77" t="s">
+      <c r="A5" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="78" t="s">
+      <c r="B5" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="C5" s="79" t="s">
+      <c r="C5" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="D5" s="80" t="s">
+      <c r="D5" s="54" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="82" t="s">
+      <c r="A6" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="B6" s="78" t="s">
+      <c r="B6" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="79" t="s">
+      <c r="C6" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="80" t="s">
+      <c r="D6" s="54" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1280,7 +1274,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{235BA608-57CC-45B0-8234-10CA49C3B004}">
   <dimension ref="A1:T19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:P2"/>
     </sheetView>
   </sheetViews>
@@ -1311,70 +1305,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
+      <c r="P1" s="75"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="51" t="str">
+      <c r="B2" s="76" t="str">
         <f>'Listado Objetos de Dominio'!$A$2</f>
         <v>Sucursal</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="51"/>
-      <c r="O2" s="51"/>
-      <c r="P2" s="51"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="76"/>
+      <c r="L2" s="76"/>
+      <c r="M2" s="76"/>
+      <c r="N2" s="76"/>
+      <c r="O2" s="76"/>
+      <c r="P2" s="76"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="52" t="str">
+      <c r="B3" s="77" t="str">
         <f>'Listado Objetos de Dominio'!$B$2</f>
         <v>Objeto de dominio que contiene la informacion de la ubicación de las sucursales del Spa</v>
       </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="52"/>
-      <c r="N3" s="52"/>
-      <c r="O3" s="52"/>
-      <c r="P3" s="52"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="77"/>
+      <c r="K3" s="77"/>
+      <c r="L3" s="77"/>
+      <c r="M3" s="77"/>
+      <c r="N3" s="77"/>
+      <c r="O3" s="77"/>
+      <c r="P3" s="77"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
@@ -1531,11 +1525,11 @@
       <c r="T8" s="31"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="53" t="s">
+      <c r="A10" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="54"/>
-      <c r="C10" s="55"/>
+      <c r="B10" s="79"/>
+      <c r="C10" s="80"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
@@ -1554,44 +1548,44 @@
       <c r="C12" s="38"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="56" t="s">
+      <c r="A14" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="57"/>
-      <c r="C14" s="57" t="s">
+      <c r="B14" s="69"/>
+      <c r="C14" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="D14" s="57"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="57"/>
-      <c r="G14" s="57" t="s">
+      <c r="D14" s="69"/>
+      <c r="E14" s="69"/>
+      <c r="F14" s="69"/>
+      <c r="G14" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="H14" s="57"/>
-      <c r="I14" s="57"/>
-      <c r="J14" s="57" t="s">
+      <c r="H14" s="69"/>
+      <c r="I14" s="69"/>
+      <c r="J14" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="K14" s="57"/>
-      <c r="L14" s="57"/>
-      <c r="M14" s="57"/>
-      <c r="N14" s="57"/>
-      <c r="O14" s="57" t="s">
+      <c r="K14" s="69"/>
+      <c r="L14" s="69"/>
+      <c r="M14" s="69"/>
+      <c r="N14" s="69"/>
+      <c r="O14" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="P14" s="57"/>
-      <c r="Q14" s="57" t="s">
+      <c r="P14" s="69"/>
+      <c r="Q14" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="R14" s="60"/>
+      <c r="R14" s="70"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="58"/>
-      <c r="B15" s="59"/>
-      <c r="C15" s="59"/>
-      <c r="D15" s="59"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
+      <c r="A15" s="82"/>
+      <c r="B15" s="71"/>
+      <c r="C15" s="71"/>
+      <c r="D15" s="71"/>
+      <c r="E15" s="71"/>
+      <c r="F15" s="71"/>
       <c r="G15" s="19" t="s">
         <v>27</v>
       </c>
@@ -1604,12 +1598,12 @@
       <c r="J15" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="K15" s="59" t="s">
+      <c r="K15" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="L15" s="59"/>
-      <c r="M15" s="59"/>
-      <c r="N15" s="59"/>
+      <c r="L15" s="71"/>
+      <c r="M15" s="71"/>
+      <c r="N15" s="71"/>
       <c r="O15" s="19" t="s">
         <v>29</v>
       </c>
@@ -1624,88 +1618,88 @@
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="61" t="s">
+      <c r="A16" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="62"/>
-      <c r="C16" s="63"/>
-      <c r="D16" s="63"/>
-      <c r="E16" s="63"/>
-      <c r="F16" s="63"/>
+      <c r="B16" s="73"/>
+      <c r="C16" s="74"/>
+      <c r="D16" s="74"/>
+      <c r="E16" s="74"/>
+      <c r="F16" s="74"/>
       <c r="G16" s="20"/>
       <c r="H16" s="21"/>
       <c r="I16" s="22"/>
       <c r="J16" s="21"/>
-      <c r="K16" s="63"/>
-      <c r="L16" s="63"/>
-      <c r="M16" s="63"/>
-      <c r="N16" s="63"/>
+      <c r="K16" s="74"/>
+      <c r="L16" s="74"/>
+      <c r="M16" s="74"/>
+      <c r="N16" s="74"/>
       <c r="O16" s="20"/>
       <c r="P16" s="20"/>
       <c r="Q16" s="20"/>
       <c r="R16" s="26"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="73" t="s">
+      <c r="A17" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="74"/>
-      <c r="C17" s="75"/>
-      <c r="D17" s="75"/>
-      <c r="E17" s="75"/>
-      <c r="F17" s="75"/>
+      <c r="B17" s="67"/>
+      <c r="C17" s="68"/>
+      <c r="D17" s="68"/>
+      <c r="E17" s="68"/>
+      <c r="F17" s="68"/>
       <c r="G17" s="46"/>
       <c r="H17" s="44"/>
       <c r="I17" s="45"/>
       <c r="J17" s="39"/>
-      <c r="K17" s="68"/>
-      <c r="L17" s="68"/>
-      <c r="M17" s="68"/>
-      <c r="N17" s="68"/>
+      <c r="K17" s="61"/>
+      <c r="L17" s="61"/>
+      <c r="M17" s="61"/>
+      <c r="N17" s="61"/>
       <c r="O17" s="23"/>
       <c r="P17" s="24"/>
       <c r="Q17" s="24"/>
       <c r="R17" s="27"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="69" t="s">
+      <c r="A18" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="70"/>
-      <c r="C18" s="71"/>
-      <c r="D18" s="71"/>
-      <c r="E18" s="71"/>
-      <c r="F18" s="71"/>
+      <c r="B18" s="63"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="64"/>
       <c r="G18" s="42"/>
       <c r="H18" s="40"/>
       <c r="I18" s="41"/>
       <c r="J18" s="43"/>
-      <c r="K18" s="72"/>
-      <c r="L18" s="72"/>
-      <c r="M18" s="72"/>
-      <c r="N18" s="72"/>
+      <c r="K18" s="65"/>
+      <c r="L18" s="65"/>
+      <c r="M18" s="65"/>
+      <c r="N18" s="65"/>
       <c r="O18" s="28"/>
       <c r="P18" s="29"/>
       <c r="Q18" s="29"/>
       <c r="R18" s="30"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="65" t="s">
+      <c r="A19" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="66"/>
-      <c r="C19" s="67"/>
-      <c r="D19" s="67"/>
-      <c r="E19" s="67"/>
-      <c r="F19" s="67"/>
+      <c r="B19" s="59"/>
+      <c r="C19" s="60"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="60"/>
       <c r="G19" s="48"/>
       <c r="H19" s="49"/>
       <c r="I19" s="47"/>
       <c r="J19" s="48"/>
-      <c r="K19" s="64"/>
-      <c r="L19" s="64"/>
-      <c r="M19" s="64"/>
-      <c r="N19" s="64"/>
+      <c r="K19" s="57"/>
+      <c r="L19" s="57"/>
+      <c r="M19" s="57"/>
+      <c r="N19" s="57"/>
       <c r="O19" s="31"/>
       <c r="P19" s="32"/>
       <c r="Q19" s="32"/>
@@ -1713,6 +1707,20 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="B3:P3"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A14:B15"/>
+    <mergeCell ref="C14:F15"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:N14"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="K15:N15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="K16:N16"/>
     <mergeCell ref="K19:N19"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="C19:F19"/>
@@ -1722,20 +1730,6 @@
     <mergeCell ref="K18:N18"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="C17:F17"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="K15:N15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="K16:N16"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="B2:P2"/>
-    <mergeCell ref="B3:P3"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A14:B15"/>
-    <mergeCell ref="C14:F15"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:N14"/>
-    <mergeCell ref="O14:P14"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{F92E8141-0BAA-4CFF-A2AA-790349ADA214}"/>
@@ -1791,70 +1785,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
+      <c r="P1" s="75"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="51" t="str">
+      <c r="B2" s="76" t="str">
         <f>'Listado Objetos de Dominio'!$A$3</f>
         <v>Pais</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="51"/>
-      <c r="O2" s="51"/>
-      <c r="P2" s="51"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="76"/>
+      <c r="L2" s="76"/>
+      <c r="M2" s="76"/>
+      <c r="N2" s="76"/>
+      <c r="O2" s="76"/>
+      <c r="P2" s="76"/>
     </row>
     <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="52" t="str">
+      <c r="B3" s="77" t="str">
         <f>'Listado Objetos de Dominio'!$B$3</f>
         <v xml:space="preserve">Objeto de domino que contiene el nombre de los paises del mundo </v>
       </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="52"/>
-      <c r="N3" s="52"/>
-      <c r="O3" s="52"/>
-      <c r="P3" s="52"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="77"/>
+      <c r="K3" s="77"/>
+      <c r="L3" s="77"/>
+      <c r="M3" s="77"/>
+      <c r="N3" s="77"/>
+      <c r="O3" s="77"/>
+      <c r="P3" s="77"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
@@ -2012,11 +2006,11 @@
     </row>
     <row r="9" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="53" t="s">
+      <c r="A10" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="54"/>
-      <c r="C10" s="55"/>
+      <c r="B10" s="79"/>
+      <c r="C10" s="80"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
@@ -2035,44 +2029,44 @@
       <c r="C12" s="38"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="56" t="s">
+      <c r="A14" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="57"/>
-      <c r="C14" s="57" t="s">
+      <c r="B14" s="69"/>
+      <c r="C14" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="D14" s="57"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="57"/>
-      <c r="G14" s="57" t="s">
+      <c r="D14" s="69"/>
+      <c r="E14" s="69"/>
+      <c r="F14" s="69"/>
+      <c r="G14" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="H14" s="57"/>
-      <c r="I14" s="57"/>
-      <c r="J14" s="57" t="s">
+      <c r="H14" s="69"/>
+      <c r="I14" s="69"/>
+      <c r="J14" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="K14" s="57"/>
-      <c r="L14" s="57"/>
-      <c r="M14" s="57"/>
-      <c r="N14" s="57"/>
-      <c r="O14" s="57" t="s">
+      <c r="K14" s="69"/>
+      <c r="L14" s="69"/>
+      <c r="M14" s="69"/>
+      <c r="N14" s="69"/>
+      <c r="O14" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="P14" s="57"/>
-      <c r="Q14" s="57" t="s">
+      <c r="P14" s="69"/>
+      <c r="Q14" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="R14" s="60"/>
+      <c r="R14" s="70"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="58"/>
-      <c r="B15" s="59"/>
-      <c r="C15" s="59"/>
-      <c r="D15" s="59"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
+      <c r="A15" s="82"/>
+      <c r="B15" s="71"/>
+      <c r="C15" s="71"/>
+      <c r="D15" s="71"/>
+      <c r="E15" s="71"/>
+      <c r="F15" s="71"/>
       <c r="G15" s="19" t="s">
         <v>27</v>
       </c>
@@ -2085,12 +2079,12 @@
       <c r="J15" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="K15" s="59" t="s">
+      <c r="K15" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="L15" s="59"/>
-      <c r="M15" s="59"/>
-      <c r="N15" s="59"/>
+      <c r="L15" s="71"/>
+      <c r="M15" s="71"/>
+      <c r="N15" s="71"/>
       <c r="O15" s="19" t="s">
         <v>29</v>
       </c>
@@ -2105,88 +2099,88 @@
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="61" t="s">
+      <c r="A16" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="62"/>
-      <c r="C16" s="63"/>
-      <c r="D16" s="63"/>
-      <c r="E16" s="63"/>
-      <c r="F16" s="63"/>
+      <c r="B16" s="73"/>
+      <c r="C16" s="74"/>
+      <c r="D16" s="74"/>
+      <c r="E16" s="74"/>
+      <c r="F16" s="74"/>
       <c r="G16" s="20"/>
       <c r="H16" s="21"/>
       <c r="I16" s="22"/>
       <c r="J16" s="21"/>
-      <c r="K16" s="63"/>
-      <c r="L16" s="63"/>
-      <c r="M16" s="63"/>
-      <c r="N16" s="63"/>
+      <c r="K16" s="74"/>
+      <c r="L16" s="74"/>
+      <c r="M16" s="74"/>
+      <c r="N16" s="74"/>
       <c r="O16" s="20"/>
       <c r="P16" s="20"/>
       <c r="Q16" s="20"/>
       <c r="R16" s="26"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="73" t="s">
+      <c r="A17" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="74"/>
-      <c r="C17" s="75"/>
-      <c r="D17" s="75"/>
-      <c r="E17" s="75"/>
-      <c r="F17" s="75"/>
+      <c r="B17" s="67"/>
+      <c r="C17" s="68"/>
+      <c r="D17" s="68"/>
+      <c r="E17" s="68"/>
+      <c r="F17" s="68"/>
       <c r="G17" s="46"/>
       <c r="H17" s="44"/>
       <c r="I17" s="45"/>
       <c r="J17" s="39"/>
-      <c r="K17" s="68"/>
-      <c r="L17" s="68"/>
-      <c r="M17" s="68"/>
-      <c r="N17" s="68"/>
+      <c r="K17" s="61"/>
+      <c r="L17" s="61"/>
+      <c r="M17" s="61"/>
+      <c r="N17" s="61"/>
       <c r="O17" s="23"/>
       <c r="P17" s="24"/>
       <c r="Q17" s="24"/>
       <c r="R17" s="27"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="69" t="s">
+      <c r="A18" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="70"/>
-      <c r="C18" s="71"/>
-      <c r="D18" s="71"/>
-      <c r="E18" s="71"/>
-      <c r="F18" s="71"/>
+      <c r="B18" s="63"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="64"/>
       <c r="G18" s="42"/>
       <c r="H18" s="40"/>
       <c r="I18" s="41"/>
       <c r="J18" s="43"/>
-      <c r="K18" s="72"/>
-      <c r="L18" s="72"/>
-      <c r="M18" s="72"/>
-      <c r="N18" s="72"/>
+      <c r="K18" s="65"/>
+      <c r="L18" s="65"/>
+      <c r="M18" s="65"/>
+      <c r="N18" s="65"/>
       <c r="O18" s="28"/>
       <c r="P18" s="29"/>
       <c r="Q18" s="29"/>
       <c r="R18" s="30"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="65" t="s">
+      <c r="A19" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="66"/>
-      <c r="C19" s="67"/>
-      <c r="D19" s="67"/>
-      <c r="E19" s="67"/>
-      <c r="F19" s="67"/>
+      <c r="B19" s="59"/>
+      <c r="C19" s="60"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="60"/>
       <c r="G19" s="48"/>
       <c r="H19" s="49"/>
       <c r="I19" s="47"/>
       <c r="J19" s="48"/>
-      <c r="K19" s="64"/>
-      <c r="L19" s="64"/>
-      <c r="M19" s="64"/>
-      <c r="N19" s="64"/>
+      <c r="K19" s="57"/>
+      <c r="L19" s="57"/>
+      <c r="M19" s="57"/>
+      <c r="N19" s="57"/>
       <c r="O19" s="31"/>
       <c r="P19" s="32"/>
       <c r="Q19" s="32"/>
@@ -2194,6 +2188,17 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="K18:N18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="K19:N19"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="K15:N15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="K16:N16"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="C17:F17"/>
     <mergeCell ref="K17:N17"/>
@@ -2206,17 +2211,6 @@
     <mergeCell ref="G14:I14"/>
     <mergeCell ref="J14:N14"/>
     <mergeCell ref="O14:P14"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="K15:N15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="K16:N16"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="K18:N18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="K19:N19"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{BD3FFCC5-4B44-4838-A36D-76DB08190487}"/>
@@ -2270,70 +2264,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
+      <c r="P1" s="75"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="51" t="str">
+      <c r="B2" s="76" t="str">
         <f>'Listado Objetos de Dominio'!$A$4</f>
         <v>Departamento</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="51"/>
-      <c r="O2" s="51"/>
-      <c r="P2" s="51"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="76"/>
+      <c r="L2" s="76"/>
+      <c r="M2" s="76"/>
+      <c r="N2" s="76"/>
+      <c r="O2" s="76"/>
+      <c r="P2" s="76"/>
     </row>
     <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="52" t="str">
+      <c r="B3" s="77" t="str">
         <f>'Listado Objetos de Dominio'!$B$4</f>
         <v>Objeto de dominio que representa a cada uno de los departamentos que pertenecen a un pais</v>
       </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="52"/>
-      <c r="N3" s="52"/>
-      <c r="O3" s="52"/>
-      <c r="P3" s="52"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="77"/>
+      <c r="K3" s="77"/>
+      <c r="L3" s="77"/>
+      <c r="M3" s="77"/>
+      <c r="N3" s="77"/>
+      <c r="O3" s="77"/>
+      <c r="P3" s="77"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
@@ -2491,11 +2485,11 @@
     </row>
     <row r="9" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="53" t="s">
+      <c r="A10" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="54"/>
-      <c r="C10" s="55"/>
+      <c r="B10" s="79"/>
+      <c r="C10" s="80"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
@@ -2515,44 +2509,44 @@
     </row>
     <row r="13" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="56" t="s">
+      <c r="A14" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="57"/>
-      <c r="C14" s="57" t="s">
+      <c r="B14" s="69"/>
+      <c r="C14" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="D14" s="57"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="57"/>
-      <c r="G14" s="57" t="s">
+      <c r="D14" s="69"/>
+      <c r="E14" s="69"/>
+      <c r="F14" s="69"/>
+      <c r="G14" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="H14" s="57"/>
-      <c r="I14" s="57"/>
-      <c r="J14" s="57" t="s">
+      <c r="H14" s="69"/>
+      <c r="I14" s="69"/>
+      <c r="J14" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="K14" s="57"/>
-      <c r="L14" s="57"/>
-      <c r="M14" s="57"/>
-      <c r="N14" s="57"/>
-      <c r="O14" s="57" t="s">
+      <c r="K14" s="69"/>
+      <c r="L14" s="69"/>
+      <c r="M14" s="69"/>
+      <c r="N14" s="69"/>
+      <c r="O14" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="P14" s="57"/>
-      <c r="Q14" s="57" t="s">
+      <c r="P14" s="69"/>
+      <c r="Q14" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="R14" s="60"/>
+      <c r="R14" s="70"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="58"/>
-      <c r="B15" s="59"/>
-      <c r="C15" s="59"/>
-      <c r="D15" s="59"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
+      <c r="A15" s="82"/>
+      <c r="B15" s="71"/>
+      <c r="C15" s="71"/>
+      <c r="D15" s="71"/>
+      <c r="E15" s="71"/>
+      <c r="F15" s="71"/>
       <c r="G15" s="19" t="s">
         <v>27</v>
       </c>
@@ -2565,12 +2559,12 @@
       <c r="J15" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="K15" s="59" t="s">
+      <c r="K15" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="L15" s="59"/>
-      <c r="M15" s="59"/>
-      <c r="N15" s="59"/>
+      <c r="L15" s="71"/>
+      <c r="M15" s="71"/>
+      <c r="N15" s="71"/>
       <c r="O15" s="19" t="s">
         <v>29</v>
       </c>
@@ -2585,88 +2579,88 @@
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="61" t="s">
+      <c r="A16" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="62"/>
-      <c r="C16" s="63"/>
-      <c r="D16" s="63"/>
-      <c r="E16" s="63"/>
-      <c r="F16" s="63"/>
+      <c r="B16" s="73"/>
+      <c r="C16" s="74"/>
+      <c r="D16" s="74"/>
+      <c r="E16" s="74"/>
+      <c r="F16" s="74"/>
       <c r="G16" s="20"/>
       <c r="H16" s="21"/>
       <c r="I16" s="22"/>
       <c r="J16" s="21"/>
-      <c r="K16" s="63"/>
-      <c r="L16" s="63"/>
-      <c r="M16" s="63"/>
-      <c r="N16" s="63"/>
+      <c r="K16" s="74"/>
+      <c r="L16" s="74"/>
+      <c r="M16" s="74"/>
+      <c r="N16" s="74"/>
       <c r="O16" s="20"/>
       <c r="P16" s="20"/>
       <c r="Q16" s="20"/>
       <c r="R16" s="26"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="73" t="s">
+      <c r="A17" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="74"/>
-      <c r="C17" s="75"/>
-      <c r="D17" s="75"/>
-      <c r="E17" s="75"/>
-      <c r="F17" s="75"/>
+      <c r="B17" s="67"/>
+      <c r="C17" s="68"/>
+      <c r="D17" s="68"/>
+      <c r="E17" s="68"/>
+      <c r="F17" s="68"/>
       <c r="G17" s="46"/>
       <c r="H17" s="44"/>
       <c r="I17" s="45"/>
       <c r="J17" s="39"/>
-      <c r="K17" s="68"/>
-      <c r="L17" s="68"/>
-      <c r="M17" s="68"/>
-      <c r="N17" s="68"/>
+      <c r="K17" s="61"/>
+      <c r="L17" s="61"/>
+      <c r="M17" s="61"/>
+      <c r="N17" s="61"/>
       <c r="O17" s="23"/>
       <c r="P17" s="24"/>
       <c r="Q17" s="24"/>
       <c r="R17" s="27"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="69" t="s">
+      <c r="A18" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="70"/>
-      <c r="C18" s="71"/>
-      <c r="D18" s="71"/>
-      <c r="E18" s="71"/>
-      <c r="F18" s="71"/>
+      <c r="B18" s="63"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="64"/>
       <c r="G18" s="42"/>
       <c r="H18" s="40"/>
       <c r="I18" s="41"/>
       <c r="J18" s="43"/>
-      <c r="K18" s="72"/>
-      <c r="L18" s="72"/>
-      <c r="M18" s="72"/>
-      <c r="N18" s="72"/>
+      <c r="K18" s="65"/>
+      <c r="L18" s="65"/>
+      <c r="M18" s="65"/>
+      <c r="N18" s="65"/>
       <c r="O18" s="28"/>
       <c r="P18" s="29"/>
       <c r="Q18" s="29"/>
       <c r="R18" s="30"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="65" t="s">
+      <c r="A19" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="66"/>
-      <c r="C19" s="67"/>
-      <c r="D19" s="67"/>
-      <c r="E19" s="67"/>
-      <c r="F19" s="67"/>
+      <c r="B19" s="59"/>
+      <c r="C19" s="60"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="60"/>
       <c r="G19" s="48"/>
       <c r="H19" s="49"/>
       <c r="I19" s="47"/>
       <c r="J19" s="48"/>
-      <c r="K19" s="64"/>
-      <c r="L19" s="64"/>
-      <c r="M19" s="64"/>
-      <c r="N19" s="64"/>
+      <c r="K19" s="57"/>
+      <c r="L19" s="57"/>
+      <c r="M19" s="57"/>
+      <c r="N19" s="57"/>
       <c r="O19" s="31"/>
       <c r="P19" s="32"/>
       <c r="Q19" s="32"/>
@@ -2674,16 +2668,12 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="B2:P2"/>
-    <mergeCell ref="B3:P3"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="K15:N15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="K16:N16"/>
+    <mergeCell ref="K18:N18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="K19:N19"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:F18"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="C17:F17"/>
     <mergeCell ref="K17:N17"/>
@@ -2691,12 +2681,16 @@
     <mergeCell ref="C14:F15"/>
     <mergeCell ref="G14:I14"/>
     <mergeCell ref="J14:N14"/>
-    <mergeCell ref="K18:N18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="K19:N19"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="K15:N15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="K16:N16"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="B3:P3"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="O14:P14"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{0B6B7A21-4F42-4461-B988-DE8CBBB8B21F}"/>
@@ -2861,18 +2855,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2894,18 +2888,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2038022-656B-4A1B-A485-51A1972238BD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6724C681-8A04-4D66-BB1C-57F7466573C0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6724C681-8A04-4D66-BB1C-57F7466573C0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2038022-656B-4A1B-A485-51A1972238BD}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
